--- a/testData/data.xlsx
+++ b/testData/data.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
   <si>
     <t>Amount</t>
   </si>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,6 +412,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="true"/>
@@ -820,7 +824,7 @@
       <c r="K2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L2" t="s" s="47">
+      <c r="L2" t="s" s="51">
         <v>54</v>
       </c>
       <c r="M2" s="2"/>
@@ -859,7 +863,7 @@
       <c r="K3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="L3" t="s" s="48">
+      <c r="L3" t="s" s="52">
         <v>53</v>
       </c>
       <c r="M3" s="2"/>
